--- a/SA_Locations/SA_Location_Florida.xlsx
+++ b/SA_Locations/SA_Location_Florida.xlsx
@@ -570,46 +570,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.748</v>
+        <v>7.028</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.922</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>44.637</v>
+        <v>39.283</v>
       </c>
       <c r="F3" t="n">
-        <v>27.342</v>
+        <v>28.844</v>
       </c>
       <c r="G3" t="n">
-        <v>27.291</v>
+        <v>28.637</v>
       </c>
       <c r="H3" t="n">
-        <v>0.051</v>
+        <v>0.207</v>
       </c>
       <c r="I3" t="n">
-        <v>0.051</v>
+        <v>0.207</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>135.496</v>
+        <v>30.1896</v>
       </c>
       <c r="L3" t="n">
-        <v>27.291</v>
+        <v>28.637</v>
       </c>
       <c r="M3" t="n">
-        <v>108.205</v>
+        <v>1.5526</v>
       </c>
       <c r="N3" t="n">
-        <v>4.1412</v>
+        <v>1.5526</v>
       </c>
       <c r="O3" t="n">
-        <v>104.0638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -813,46 +813,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.748</v>
+        <v>7.025</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.823</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10.279</v>
       </c>
       <c r="E3" t="n">
-        <v>44.637</v>
+        <v>32.785</v>
       </c>
       <c r="F3" t="n">
-        <v>27.342</v>
+        <v>29.122</v>
       </c>
       <c r="G3" t="n">
-        <v>27.291</v>
+        <v>28.914</v>
       </c>
       <c r="H3" t="n">
-        <v>0.051</v>
+        <v>0.208</v>
       </c>
       <c r="I3" t="n">
-        <v>0.051</v>
+        <v>0.208</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>147.5552</v>
+        <v>28.914</v>
       </c>
       <c r="L3" t="n">
-        <v>27.291</v>
+        <v>28.914</v>
       </c>
       <c r="M3" t="n">
-        <v>120.2642</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.2598</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>117.0046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1056,46 +1056,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.748</v>
+        <v>7.025</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.823</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10.279</v>
       </c>
       <c r="E3" t="n">
-        <v>44.637</v>
+        <v>32.785</v>
       </c>
       <c r="F3" t="n">
-        <v>27.342</v>
+        <v>29.122</v>
       </c>
       <c r="G3" t="n">
-        <v>27.291</v>
+        <v>28.914</v>
       </c>
       <c r="H3" t="n">
-        <v>0.051</v>
+        <v>0.208</v>
       </c>
       <c r="I3" t="n">
-        <v>0.051</v>
+        <v>0.208</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>149.1866</v>
+        <v>28.914</v>
       </c>
       <c r="L3" t="n">
-        <v>27.291</v>
+        <v>28.914</v>
       </c>
       <c r="M3" t="n">
-        <v>121.8956</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.1748</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>118.7208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1299,46 +1299,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.748</v>
+        <v>6.896</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.176</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>15.75</v>
       </c>
       <c r="E3" t="n">
-        <v>44.637</v>
+        <v>38.219</v>
       </c>
       <c r="F3" t="n">
-        <v>27.342</v>
+        <v>29.11</v>
       </c>
       <c r="G3" t="n">
-        <v>27.291</v>
+        <v>28.818</v>
       </c>
       <c r="H3" t="n">
-        <v>0.051</v>
+        <v>0.292</v>
       </c>
       <c r="I3" t="n">
-        <v>0.051</v>
+        <v>0.292</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>83.26579999999998</v>
+        <v>29.131</v>
       </c>
       <c r="L3" t="n">
-        <v>27.291</v>
+        <v>28.818</v>
       </c>
       <c r="M3" t="n">
-        <v>55.9748</v>
+        <v>0.313</v>
       </c>
       <c r="N3" t="n">
-        <v>2.863</v>
+        <v>0.313</v>
       </c>
       <c r="O3" t="n">
-        <v>53.1118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1542,46 +1542,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.739</v>
+        <v>5.833</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>11.022</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>15.11</v>
+        <v>15.36</v>
       </c>
       <c r="F3" t="n">
-        <v>26.665</v>
+        <v>28.516</v>
       </c>
       <c r="G3" t="n">
-        <v>26.046</v>
+        <v>28.516</v>
       </c>
       <c r="H3" t="n">
-        <v>0.619</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.619</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>405.8424</v>
+        <v>32.7234</v>
       </c>
       <c r="L3" t="n">
-        <v>26.046</v>
+        <v>28.516</v>
       </c>
       <c r="M3" t="n">
-        <v>379.7964</v>
+        <v>4.2074</v>
       </c>
       <c r="N3" t="n">
-        <v>22.8654</v>
+        <v>4.2074</v>
       </c>
       <c r="O3" t="n">
-        <v>356.9308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">

--- a/SA_Locations/SA_Location_Florida.xlsx
+++ b/SA_Locations/SA_Location_Florida.xlsx
@@ -521,22 +521,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.468450000000001</v>
+        <v>3.483499999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.67505</v>
+        <v>1.0008</v>
       </c>
       <c r="D2" t="n">
-        <v>0.073</v>
+        <v>0.09755</v>
       </c>
       <c r="E2" t="n">
-        <v>28.2744</v>
+        <v>27.37635</v>
       </c>
       <c r="F2" t="n">
-        <v>26.93865</v>
+        <v>25.67095</v>
       </c>
       <c r="G2" t="n">
-        <v>26.93865</v>
+        <v>25.67095</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -548,19 +548,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>57.9186</v>
+        <v>63.2648</v>
       </c>
       <c r="L2" t="n">
-        <v>26.939</v>
+        <v>25.671</v>
       </c>
       <c r="M2" t="n">
-        <v>30.9796</v>
+        <v>37.5938</v>
       </c>
       <c r="N2" t="n">
-        <v>3.8442</v>
+        <v>3.4142</v>
       </c>
       <c r="O2" t="n">
-        <v>27.1354</v>
+        <v>34.17960000000001</v>
       </c>
     </row>
     <row r="3">
@@ -570,43 +570,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.028</v>
+        <v>7.121</v>
       </c>
       <c r="C3" t="n">
-        <v>3.922</v>
+        <v>4.587</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>39.283</v>
+        <v>36.987</v>
       </c>
       <c r="F3" t="n">
-        <v>28.844</v>
+        <v>27.605</v>
       </c>
       <c r="G3" t="n">
-        <v>28.637</v>
+        <v>27.4</v>
       </c>
       <c r="H3" t="n">
-        <v>0.207</v>
+        <v>0.205</v>
       </c>
       <c r="I3" t="n">
-        <v>0.207</v>
+        <v>0.205</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>30.1896</v>
+        <v>28.7166</v>
       </c>
       <c r="L3" t="n">
-        <v>28.637</v>
+        <v>27.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.5526</v>
+        <v>1.3166</v>
       </c>
       <c r="N3" t="n">
-        <v>1.5526</v>
+        <v>1.3166</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -619,22 +619,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.387</v>
+        <v>7.477</v>
       </c>
       <c r="C4" t="n">
-        <v>3.866</v>
+        <v>4.564</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>48.199</v>
+        <v>45.696</v>
       </c>
       <c r="F4" t="n">
-        <v>28.928</v>
+        <v>27.69</v>
       </c>
       <c r="G4" t="n">
-        <v>28.92785205479452</v>
+        <v>27.68970684931507</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -646,16 +646,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>30.491</v>
+        <v>29.0054</v>
       </c>
       <c r="L4" t="n">
-        <v>28.928</v>
+        <v>27.69</v>
       </c>
       <c r="M4" t="n">
-        <v>1.563</v>
+        <v>1.3154</v>
       </c>
       <c r="N4" t="n">
-        <v>1.563</v>
+        <v>1.3154</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -764,22 +764,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.274850000000001</v>
+        <v>3.29145</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7986</v>
+        <v>1.10835</v>
       </c>
       <c r="D2" t="n">
-        <v>1.7035</v>
+        <v>1.74335</v>
       </c>
       <c r="E2" t="n">
-        <v>25.73535</v>
+        <v>24.98080000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>26.87155</v>
+        <v>25.60595</v>
       </c>
       <c r="G2" t="n">
-        <v>26.87155</v>
+        <v>25.60595</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>82.1794</v>
+        <v>74.1794</v>
       </c>
       <c r="L2" t="n">
-        <v>26.872</v>
+        <v>25.606</v>
       </c>
       <c r="M2" t="n">
-        <v>55.30740000000001</v>
+        <v>48.57340000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5406</v>
+        <v>6.6616</v>
       </c>
       <c r="O2" t="n">
-        <v>48.7668</v>
+        <v>41.9118</v>
       </c>
     </row>
     <row r="3">
@@ -813,37 +813,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.025</v>
+        <v>7.11</v>
       </c>
       <c r="C3" t="n">
-        <v>5.823</v>
+        <v>5.806</v>
       </c>
       <c r="D3" t="n">
-        <v>10.279</v>
+        <v>10.287</v>
       </c>
       <c r="E3" t="n">
-        <v>32.785</v>
+        <v>32.819</v>
       </c>
       <c r="F3" t="n">
-        <v>29.122</v>
+        <v>27.856</v>
       </c>
       <c r="G3" t="n">
-        <v>28.914</v>
+        <v>27.651</v>
       </c>
       <c r="H3" t="n">
-        <v>0.208</v>
+        <v>0.204</v>
       </c>
       <c r="I3" t="n">
-        <v>0.208</v>
+        <v>0.204</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>28.914</v>
+        <v>27.651</v>
       </c>
       <c r="L3" t="n">
-        <v>28.914</v>
+        <v>27.651</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.384</v>
+        <v>7.426</v>
       </c>
       <c r="C4" t="n">
-        <v>10.792</v>
+        <v>10.786</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>24.562</v>
+        <v>24.472</v>
       </c>
       <c r="F4" t="n">
-        <v>29.173</v>
+        <v>27.895</v>
       </c>
       <c r="G4" t="n">
-        <v>29.17347397260274</v>
+        <v>27.89524931506849</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>29.17299999999999</v>
+        <v>27.895</v>
       </c>
       <c r="L4" t="n">
-        <v>29.17299999999999</v>
+        <v>27.895</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.226450000000001</v>
+        <v>3.24255</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6868000000000001</v>
+        <v>0.9843</v>
       </c>
       <c r="D2" t="n">
-        <v>1.64675</v>
+        <v>1.66455</v>
       </c>
       <c r="E2" t="n">
-        <v>25.2608</v>
+        <v>24.4588</v>
       </c>
       <c r="F2" t="n">
-        <v>26.83345000000001</v>
+        <v>25.56495</v>
       </c>
       <c r="G2" t="n">
-        <v>26.83345000000001</v>
+        <v>25.56495</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1034,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>134.366</v>
+        <v>128.2812</v>
       </c>
       <c r="L2" t="n">
-        <v>26.834</v>
+        <v>25.565</v>
       </c>
       <c r="M2" t="n">
-        <v>107.532</v>
+        <v>102.7162</v>
       </c>
       <c r="N2" t="n">
-        <v>4.4108</v>
+        <v>4.5192</v>
       </c>
       <c r="O2" t="n">
-        <v>103.1212</v>
+        <v>98.197</v>
       </c>
     </row>
     <row r="3">
@@ -1056,37 +1056,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.025</v>
+        <v>7.11</v>
       </c>
       <c r="C3" t="n">
-        <v>5.823</v>
+        <v>5.806</v>
       </c>
       <c r="D3" t="n">
-        <v>10.279</v>
+        <v>10.287</v>
       </c>
       <c r="E3" t="n">
-        <v>32.785</v>
+        <v>32.819</v>
       </c>
       <c r="F3" t="n">
-        <v>29.122</v>
+        <v>27.856</v>
       </c>
       <c r="G3" t="n">
-        <v>28.914</v>
+        <v>27.651</v>
       </c>
       <c r="H3" t="n">
-        <v>0.208</v>
+        <v>0.204</v>
       </c>
       <c r="I3" t="n">
-        <v>0.208</v>
+        <v>0.204</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>28.914</v>
+        <v>27.651</v>
       </c>
       <c r="L3" t="n">
-        <v>28.914</v>
+        <v>27.651</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.384</v>
+        <v>7.426</v>
       </c>
       <c r="C4" t="n">
-        <v>10.792</v>
+        <v>10.786</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>24.562</v>
+        <v>24.472</v>
       </c>
       <c r="F4" t="n">
-        <v>29.173</v>
+        <v>27.895</v>
       </c>
       <c r="G4" t="n">
-        <v>29.17347397260274</v>
+        <v>27.89524931506849</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>29.17299999999999</v>
+        <v>27.895</v>
       </c>
       <c r="L4" t="n">
-        <v>29.17299999999999</v>
+        <v>27.895</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1250,22 +1250,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.22795</v>
+        <v>3.245299999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8337</v>
+        <v>1.10935</v>
       </c>
       <c r="D2" t="n">
-        <v>1.7048</v>
+        <v>1.7459</v>
       </c>
       <c r="E2" t="n">
-        <v>23.86945</v>
+        <v>23.16885</v>
       </c>
       <c r="F2" t="n">
-        <v>26.822</v>
+        <v>25.5542</v>
       </c>
       <c r="G2" t="n">
-        <v>26.822</v>
+        <v>25.5542</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1277,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>37.0612</v>
+        <v>54.93060000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>26.822</v>
+        <v>25.554</v>
       </c>
       <c r="M2" t="n">
-        <v>10.2392</v>
+        <v>29.3766</v>
       </c>
       <c r="N2" t="n">
-        <v>6.525</v>
+        <v>6.3892</v>
       </c>
       <c r="O2" t="n">
-        <v>3.7142</v>
+        <v>22.9876</v>
       </c>
     </row>
     <row r="3">
@@ -1299,43 +1299,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.896</v>
+        <v>7.052</v>
       </c>
       <c r="C3" t="n">
-        <v>3.176</v>
+        <v>4.591</v>
       </c>
       <c r="D3" t="n">
-        <v>15.75</v>
+        <v>12.8</v>
       </c>
       <c r="E3" t="n">
-        <v>38.219</v>
+        <v>35.315</v>
       </c>
       <c r="F3" t="n">
-        <v>29.11</v>
+        <v>27.852</v>
       </c>
       <c r="G3" t="n">
-        <v>28.818</v>
+        <v>27.608</v>
       </c>
       <c r="H3" t="n">
-        <v>0.292</v>
+        <v>0.244</v>
       </c>
       <c r="I3" t="n">
-        <v>0.292</v>
+        <v>0.244</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>29.131</v>
+        <v>27.7508</v>
       </c>
       <c r="L3" t="n">
-        <v>28.818</v>
+        <v>27.607</v>
       </c>
       <c r="M3" t="n">
-        <v>0.313</v>
+        <v>0.1438</v>
       </c>
       <c r="N3" t="n">
-        <v>0.313</v>
+        <v>0.1438</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.384</v>
+        <v>7.426</v>
       </c>
       <c r="C4" t="n">
-        <v>10.792</v>
+        <v>10.786</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>24.562</v>
+        <v>24.472</v>
       </c>
       <c r="F4" t="n">
-        <v>29.173</v>
+        <v>27.895</v>
       </c>
       <c r="G4" t="n">
-        <v>29.17347397260274</v>
+        <v>27.89524931506849</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>29.17299999999999</v>
+        <v>27.895</v>
       </c>
       <c r="L4" t="n">
-        <v>29.17299999999999</v>
+        <v>27.895</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1493,22 +1493,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.1065</v>
+        <v>3.1206</v>
       </c>
       <c r="C2" t="n">
-        <v>0.68585</v>
+        <v>0.93</v>
       </c>
       <c r="D2" t="n">
-        <v>1.69115</v>
+        <v>1.73225</v>
       </c>
       <c r="E2" t="n">
-        <v>22.4354</v>
+        <v>21.8446</v>
       </c>
       <c r="F2" t="n">
-        <v>26.73815</v>
+        <v>25.46815</v>
       </c>
       <c r="G2" t="n">
-        <v>26.73815</v>
+        <v>25.46815</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1520,19 +1520,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>173.4458</v>
+        <v>174.9578</v>
       </c>
       <c r="L2" t="n">
-        <v>26.738</v>
+        <v>25.468</v>
       </c>
       <c r="M2" t="n">
-        <v>146.7078</v>
+        <v>149.4898</v>
       </c>
       <c r="N2" t="n">
-        <v>13.7318</v>
+        <v>13.7238</v>
       </c>
       <c r="O2" t="n">
-        <v>132.976</v>
+        <v>135.766</v>
       </c>
     </row>
     <row r="3">
@@ -1542,22 +1542,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.833</v>
+        <v>5.839</v>
       </c>
       <c r="C3" t="n">
-        <v>11.022</v>
+        <v>11.021</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>15.36</v>
+        <v>15.362</v>
       </c>
       <c r="F3" t="n">
-        <v>28.516</v>
+        <v>27.229</v>
       </c>
       <c r="G3" t="n">
-        <v>28.516</v>
+        <v>27.229</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1569,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>32.7234</v>
+        <v>31.4578</v>
       </c>
       <c r="L3" t="n">
-        <v>28.516</v>
+        <v>27.229</v>
       </c>
       <c r="M3" t="n">
-        <v>4.2074</v>
+        <v>4.228800000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>4.2074</v>
+        <v>4.228800000000001</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1591,22 +1591,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.833</v>
+        <v>5.839</v>
       </c>
       <c r="C4" t="n">
-        <v>11.022</v>
+        <v>11.021</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>15.36</v>
+        <v>15.362</v>
       </c>
       <c r="F4" t="n">
-        <v>28.516</v>
+        <v>27.229</v>
       </c>
       <c r="G4" t="n">
-        <v>28.51642191780822</v>
+        <v>27.22919178082192</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>32.7234</v>
+        <v>31.4578</v>
       </c>
       <c r="L4" t="n">
-        <v>28.516</v>
+        <v>27.229</v>
       </c>
       <c r="M4" t="n">
-        <v>4.2074</v>
+        <v>4.228800000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>4.2074</v>
+        <v>4.228800000000001</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>

--- a/SA_Locations/SA_Location_Florida.xlsx
+++ b/SA_Locations/SA_Location_Florida.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Fold_1" sheetId="1" state="visible" r:id="rId1"/>
@@ -57,18 +57,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -521,46 +521,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.483499999999999</v>
+        <v>5.151899999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0008</v>
+        <v>4.95385</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09755</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>27.37635</v>
+        <v>46.71925</v>
       </c>
       <c r="F2" t="n">
-        <v>25.67095</v>
+        <v>2110.659650000001</v>
       </c>
       <c r="G2" t="n">
-        <v>25.67095</v>
+        <v>2010.7481</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>99.91149999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>99.91149999999999</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>63.2648</v>
+        <v>2124.6566</v>
       </c>
       <c r="L2" t="n">
-        <v>25.671</v>
+        <v>2010.759</v>
       </c>
       <c r="M2" t="n">
-        <v>37.5938</v>
+        <v>113.8976</v>
       </c>
       <c r="N2" t="n">
-        <v>3.4142</v>
+        <v>104.7592</v>
       </c>
       <c r="O2" t="n">
-        <v>34.17960000000001</v>
+        <v>9.138400000000001</v>
       </c>
     </row>
     <row r="3">
@@ -570,43 +570,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.121</v>
+        <v>5.352</v>
       </c>
       <c r="C3" t="n">
-        <v>4.587</v>
+        <v>5.977</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>36.987</v>
+        <v>44.735</v>
       </c>
       <c r="F3" t="n">
-        <v>27.605</v>
+        <v>2177.194</v>
       </c>
       <c r="G3" t="n">
-        <v>27.4</v>
+        <v>2058.553</v>
       </c>
       <c r="H3" t="n">
-        <v>0.205</v>
+        <v>118.641</v>
       </c>
       <c r="I3" t="n">
-        <v>0.205</v>
+        <v>107.167</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>11.474</v>
       </c>
       <c r="K3" t="n">
-        <v>28.7166</v>
+        <v>2136.5602</v>
       </c>
       <c r="L3" t="n">
-        <v>27.4</v>
+        <v>2058.545</v>
       </c>
       <c r="M3" t="n">
-        <v>1.3166</v>
+        <v>78.01520000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>1.3166</v>
+        <v>78.01520000000001</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -619,50 +619,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.477</v>
+        <v>5.823</v>
       </c>
       <c r="C4" t="n">
-        <v>4.564</v>
+        <v>7.972</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>45.696</v>
+        <v>41.598</v>
       </c>
       <c r="F4" t="n">
-        <v>27.69</v>
+        <v>2295.47</v>
       </c>
       <c r="G4" t="n">
-        <v>27.68970684931507</v>
+        <v>2166.577</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>128.893</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>128.893</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>29.0054</v>
+        <v>2205.2952</v>
       </c>
       <c r="L4" t="n">
-        <v>27.69</v>
+        <v>2166.577</v>
       </c>
       <c r="M4" t="n">
-        <v>1.3154</v>
+        <v>38.7182</v>
       </c>
       <c r="N4" t="n">
-        <v>1.3154</v>
+        <v>38.7182</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -764,46 +764,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.29145</v>
+        <v>5.272549999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>1.10835</v>
+        <v>4.897150000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>1.74335</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.98080000000001</v>
+        <v>46.8949</v>
       </c>
       <c r="F2" t="n">
-        <v>25.60595</v>
+        <v>2131.246950000001</v>
       </c>
       <c r="G2" t="n">
-        <v>25.60595</v>
+        <v>2023.85425</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>107.39275</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>107.39275</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>74.1794</v>
+        <v>2085.2156</v>
       </c>
       <c r="L2" t="n">
-        <v>25.606</v>
+        <v>2023.862</v>
       </c>
       <c r="M2" t="n">
-        <v>48.57340000000001</v>
+        <v>61.35359999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>6.6616</v>
+        <v>37.6288</v>
       </c>
       <c r="O2" t="n">
-        <v>41.9118</v>
+        <v>23.7246</v>
       </c>
     </row>
     <row r="3">
@@ -813,43 +813,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.11</v>
+        <v>5.436</v>
       </c>
       <c r="C3" t="n">
-        <v>5.806</v>
+        <v>6.048</v>
       </c>
       <c r="D3" t="n">
-        <v>10.287</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>32.819</v>
+        <v>44.66</v>
       </c>
       <c r="F3" t="n">
-        <v>27.856</v>
+        <v>2189.847</v>
       </c>
       <c r="G3" t="n">
-        <v>27.651</v>
+        <v>2070.491</v>
       </c>
       <c r="H3" t="n">
-        <v>0.204</v>
+        <v>119.356</v>
       </c>
       <c r="I3" t="n">
-        <v>0.204</v>
+        <v>109.771</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>9.585000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>27.651</v>
+        <v>2094.0708</v>
       </c>
       <c r="L3" t="n">
-        <v>27.651</v>
+        <v>2070.452</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>23.6188</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>23.6188</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -862,50 +862,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.426</v>
+        <v>5.823</v>
       </c>
       <c r="C4" t="n">
-        <v>10.786</v>
+        <v>7.972</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>24.472</v>
+        <v>41.598</v>
       </c>
       <c r="F4" t="n">
-        <v>27.895</v>
+        <v>2295.47</v>
       </c>
       <c r="G4" t="n">
-        <v>27.89524931506849</v>
+        <v>2166.577</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>128.893</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>128.893</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.895</v>
+        <v>2176.8234</v>
       </c>
       <c r="L4" t="n">
-        <v>27.895</v>
+        <v>2166.577</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>10.2464</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>10.2464</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1007,46 +1007,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.24255</v>
+        <v>5.183999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9843</v>
+        <v>4.788250000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>1.66455</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.4588</v>
+        <v>47.20975</v>
       </c>
       <c r="F2" t="n">
-        <v>25.56495</v>
+        <v>2108.832550000001</v>
       </c>
       <c r="G2" t="n">
-        <v>25.56495</v>
+        <v>2011.7616</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>97.07089999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>97.07089999999999</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>128.2812</v>
+        <v>2160.371999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>25.565</v>
+        <v>2011.764</v>
       </c>
       <c r="M2" t="n">
-        <v>102.7162</v>
+        <v>148.608</v>
       </c>
       <c r="N2" t="n">
-        <v>4.5192</v>
+        <v>133.4426</v>
       </c>
       <c r="O2" t="n">
-        <v>98.197</v>
+        <v>15.1656</v>
       </c>
     </row>
     <row r="3">
@@ -1056,43 +1056,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.11</v>
+        <v>5.357</v>
       </c>
       <c r="C3" t="n">
-        <v>5.806</v>
+        <v>5.973</v>
       </c>
       <c r="D3" t="n">
-        <v>10.287</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>32.819</v>
+        <v>44.76</v>
       </c>
       <c r="F3" t="n">
-        <v>27.856</v>
+        <v>2172.164</v>
       </c>
       <c r="G3" t="n">
-        <v>27.651</v>
+        <v>2059.178</v>
       </c>
       <c r="H3" t="n">
-        <v>0.204</v>
+        <v>112.985</v>
       </c>
       <c r="I3" t="n">
-        <v>0.204</v>
+        <v>101.526</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>11.459</v>
       </c>
       <c r="K3" t="n">
-        <v>27.651</v>
+        <v>2156.95</v>
       </c>
       <c r="L3" t="n">
-        <v>27.651</v>
+        <v>2059.157</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>97.79300000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>97.79300000000001</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1105,50 +1105,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.426</v>
+        <v>5.892</v>
       </c>
       <c r="C4" t="n">
-        <v>10.786</v>
+        <v>5.976</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>24.472</v>
+        <v>47.244</v>
       </c>
       <c r="F4" t="n">
-        <v>27.895</v>
+        <v>2262.465</v>
       </c>
       <c r="G4" t="n">
-        <v>27.89524931506849</v>
+        <v>2139.881</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>122.584</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.584</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.895</v>
+        <v>2203.3756</v>
       </c>
       <c r="L4" t="n">
-        <v>27.895</v>
+        <v>2139.881</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>63.49460000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>63.49460000000001</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1250,46 +1250,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.245299999999999</v>
+        <v>5.08035</v>
       </c>
       <c r="C2" t="n">
-        <v>1.10935</v>
+        <v>4.71875</v>
       </c>
       <c r="D2" t="n">
-        <v>1.7459</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.16885</v>
+        <v>46.44305</v>
       </c>
       <c r="F2" t="n">
-        <v>25.5542</v>
+        <v>2100.14715</v>
       </c>
       <c r="G2" t="n">
-        <v>25.5542</v>
+        <v>1991.31465</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>108.8326</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>108.8326</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>54.93060000000001</v>
+        <v>2478.9382</v>
       </c>
       <c r="L2" t="n">
-        <v>25.554</v>
+        <v>1991.322</v>
       </c>
       <c r="M2" t="n">
-        <v>29.3766</v>
+        <v>487.6162</v>
       </c>
       <c r="N2" t="n">
-        <v>6.3892</v>
+        <v>145.1938</v>
       </c>
       <c r="O2" t="n">
-        <v>22.9876</v>
+        <v>342.4224</v>
       </c>
     </row>
     <row r="3">
@@ -1299,46 +1299,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.052</v>
+        <v>5.291</v>
       </c>
       <c r="C3" t="n">
-        <v>4.591</v>
+        <v>5.844</v>
       </c>
       <c r="D3" t="n">
-        <v>12.8</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>35.315</v>
+        <v>44.543</v>
       </c>
       <c r="F3" t="n">
-        <v>27.852</v>
+        <v>2161.987</v>
       </c>
       <c r="G3" t="n">
-        <v>27.608</v>
+        <v>2044.935</v>
       </c>
       <c r="H3" t="n">
-        <v>0.244</v>
+        <v>117.051</v>
       </c>
       <c r="I3" t="n">
-        <v>0.244</v>
+        <v>115.573</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.478</v>
       </c>
       <c r="K3" t="n">
-        <v>27.7508</v>
+        <v>2211.638</v>
       </c>
       <c r="L3" t="n">
-        <v>27.607</v>
+        <v>2044.903</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1438</v>
+        <v>166.735</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1438</v>
+        <v>99.04400000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>67.691</v>
       </c>
     </row>
     <row r="4">
@@ -1348,50 +1348,50 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.426</v>
+        <v>5.823</v>
       </c>
       <c r="C4" t="n">
-        <v>10.786</v>
+        <v>7.972</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>24.472</v>
+        <v>41.598</v>
       </c>
       <c r="F4" t="n">
-        <v>27.895</v>
+        <v>2295.47</v>
       </c>
       <c r="G4" t="n">
-        <v>27.89524931506849</v>
+        <v>2166.577</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>128.893</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>128.893</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.895</v>
+        <v>2206.9896</v>
       </c>
       <c r="L4" t="n">
-        <v>27.895</v>
+        <v>2166.577</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>40.4126</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>40.4126</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1493,46 +1493,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.1206</v>
+        <v>5.008</v>
       </c>
       <c r="C2" t="n">
-        <v>0.93</v>
+        <v>4.966</v>
       </c>
       <c r="D2" t="n">
-        <v>1.73225</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>21.8446</v>
+        <v>44.88325</v>
       </c>
       <c r="F2" t="n">
-        <v>25.46815</v>
+        <v>2080.1141</v>
       </c>
       <c r="G2" t="n">
-        <v>25.46815</v>
+        <v>1980.7656</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>99.34844999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>99.34844999999999</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>174.9578</v>
+        <v>2415.6338</v>
       </c>
       <c r="L2" t="n">
-        <v>25.468</v>
+        <v>1980.781</v>
       </c>
       <c r="M2" t="n">
-        <v>149.4898</v>
+        <v>434.8528</v>
       </c>
       <c r="N2" t="n">
-        <v>13.7238</v>
+        <v>375.7062</v>
       </c>
       <c r="O2" t="n">
-        <v>135.766</v>
+        <v>59.14639999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1542,43 +1542,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.839</v>
+        <v>5.157</v>
       </c>
       <c r="C3" t="n">
-        <v>11.021</v>
+        <v>6.141</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>15.362</v>
+        <v>41.308</v>
       </c>
       <c r="F3" t="n">
-        <v>27.229</v>
+        <v>2133.955</v>
       </c>
       <c r="G3" t="n">
-        <v>27.229</v>
+        <v>2016.525</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>117.43</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>105.406</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>12.024</v>
       </c>
       <c r="K3" t="n">
-        <v>31.4578</v>
+        <v>2343.2596</v>
       </c>
       <c r="L3" t="n">
-        <v>27.229</v>
+        <v>2016.571</v>
       </c>
       <c r="M3" t="n">
-        <v>4.228800000000001</v>
+        <v>326.6886</v>
       </c>
       <c r="N3" t="n">
-        <v>4.228800000000001</v>
+        <v>326.6886</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1591,49 +1591,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.839</v>
+        <v>5.596</v>
       </c>
       <c r="C4" t="n">
-        <v>11.021</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>15.362</v>
+        <v>37.543</v>
       </c>
       <c r="F4" t="n">
-        <v>27.229</v>
+        <v>2278.237</v>
       </c>
       <c r="G4" t="n">
-        <v>27.22919178082192</v>
+        <v>2125.99</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.247</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>152.247</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>31.4578</v>
+        <v>2299.8326</v>
       </c>
       <c r="L4" t="n">
-        <v>27.229</v>
+        <v>2125.99</v>
       </c>
       <c r="M4" t="n">
-        <v>4.228800000000001</v>
+        <v>173.8426</v>
       </c>
       <c r="N4" t="n">
-        <v>4.228800000000001</v>
+        <v>173.8426</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>